--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
   </si>
   <si>
@@ -113,6 +125,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -363,6 +378,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -451,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,6 +481,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,365 +503,422 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -864,2305 +940,2653 @@
       <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,85 +32,88 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato morto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato morto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -941,2652 +944,2652 @@
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato morto</t>
@@ -68,6 +68,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,7 +487,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -604,10 +607,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -650,7 +653,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -696,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -742,13 +745,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -788,13 +791,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -811,7 +814,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -880,7 +883,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -925,2671 +928,2694 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>38</v>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>14</t>
@@ -475,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -751,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -797,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -928,2694 +925,2671 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1593,22 +1599,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>38</v>
@@ -1616,22 +1622,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>38</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,22 +1760,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>38</v>
@@ -1777,22 +1783,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>38</v>
@@ -1800,22 +1806,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>38</v>
@@ -1823,22 +1829,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>38</v>
@@ -1846,22 +1852,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>38</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>38</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,22 +1990,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>38</v>
@@ -2007,22 +2013,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>38</v>
@@ -2030,22 +2036,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -2053,22 +2059,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,22 +2105,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>38</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,22 +2151,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,22 +2266,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2283,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,22 +2312,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,22 +2358,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2375,22 +2381,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,22 +2450,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>38</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,22 +2496,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>38</v>
@@ -2513,22 +2519,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,22 +2565,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2582,22 +2588,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2605,19 +2611,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2634,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,10 +2680,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2686,7 +2692,7 @@
         <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2703,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2726,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,16 +2749,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>109</v>
@@ -2766,10 +2772,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -2778,7 +2784,7 @@
         <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2795,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2818,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,10 +2933,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2939,7 +2945,7 @@
         <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2950,10 +2956,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -2962,7 +2968,7 @@
         <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,10 +2979,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -2985,7 +2991,7 @@
         <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,599 +3002,691 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -314,6 +314,9 @@
     <t>14,15,16</t>
   </si>
   <si>
+    <t>14,15</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -389,7 +392,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -490,7 +496,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2074,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
@@ -2151,7 +2157,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>50</v>
@@ -2160,13 +2166,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>53</v>
@@ -2183,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>54</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>55</v>
@@ -2206,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>56</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>57</v>
@@ -2229,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>58</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>59</v>
@@ -2252,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>60</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>61</v>
@@ -2275,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>62</v>
@@ -2289,7 +2295,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>63</v>
@@ -2298,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>64</v>
@@ -2312,7 +2318,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
@@ -2321,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>67</v>
@@ -2344,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>68</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
@@ -2367,13 +2373,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
@@ -2390,13 +2396,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>73</v>
@@ -2413,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>74</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>75</v>
@@ -2436,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>76</v>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>77</v>
@@ -2459,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>78</v>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
@@ -2482,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>80</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>81</v>
@@ -2505,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>82</v>
@@ -2519,7 +2525,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>83</v>
@@ -2528,13 +2534,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -2551,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>86</v>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>87</v>
@@ -2574,13 +2580,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -2597,13 +2603,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2611,7 +2617,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
@@ -2620,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>92</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>93</v>
@@ -2643,7 +2649,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>94</v>
@@ -2657,7 +2663,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -2666,7 +2672,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>96</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>50</v>
@@ -2689,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>52</v>
@@ -2703,7 +2709,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>53</v>
@@ -2712,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>54</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>55</v>
@@ -2781,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>56</v>
@@ -2795,7 +2801,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>57</v>
@@ -2804,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>58</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,7 +2870,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>59</v>
@@ -2873,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>60</v>
@@ -2887,16 +2893,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>62</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>63</v>
@@ -2919,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>64</v>
@@ -2933,16 +2939,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>66</v>
@@ -2956,7 +2962,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>67</v>
@@ -2965,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>68</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
@@ -2988,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>70</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>50</v>
@@ -3080,21 +3086,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>53</v>
@@ -3103,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>54</v>
@@ -3112,12 +3118,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>55</v>
@@ -3126,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>56</v>
@@ -3135,12 +3141,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>57</v>
@@ -3149,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>58</v>
@@ -3158,12 +3164,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>59</v>
@@ -3172,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>60</v>
@@ -3181,12 +3187,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>61</v>
@@ -3195,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>62</v>
@@ -3204,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>63</v>
@@ -3218,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -3227,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>65</v>
@@ -3241,21 +3247,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>67</v>
@@ -3264,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -3273,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -3287,21 +3293,21 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>71</v>
@@ -3310,21 +3316,21 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
@@ -3333,7 +3339,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>74</v>
@@ -3342,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>75</v>
@@ -3356,7 +3362,7 @@
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>76</v>
@@ -3365,12 +3371,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>77</v>
@@ -3379,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>78</v>
@@ -3388,12 +3394,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>79</v>
@@ -3402,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>80</v>
@@ -3411,12 +3417,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>81</v>
@@ -3425,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>82</v>
@@ -3434,12 +3440,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
@@ -3448,21 +3454,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>85</v>
@@ -3471,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>86</v>
@@ -3480,12 +3486,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>87</v>
@@ -3494,21 +3500,21 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>89</v>
@@ -3517,21 +3523,21 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>91</v>
@@ -3540,7 +3546,7 @@
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>92</v>
@@ -3549,12 +3555,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>93</v>
@@ -3563,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>94</v>
@@ -3572,21 +3578,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>96</v>
@@ -3595,24 +3601,24 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>28</v>
@@ -3646,10 +3652,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3658,7 +3664,7 @@
         <v>36</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3675,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -314,9 +314,6 @@
     <t>14,15,16</t>
   </si>
   <si>
-    <t>14,15</t>
-  </si>
-  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2080,7 +2074,7 @@
         <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
@@ -2157,7 +2151,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>50</v>
@@ -2166,13 +2160,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2180,7 +2174,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>53</v>
@@ -2189,7 +2183,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>54</v>
@@ -2203,7 +2197,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>55</v>
@@ -2212,7 +2206,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>56</v>
@@ -2226,7 +2220,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>57</v>
@@ -2235,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>58</v>
@@ -2249,7 +2243,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>59</v>
@@ -2258,7 +2252,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>60</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>61</v>
@@ -2281,7 +2275,7 @@
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>62</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>63</v>
@@ -2304,7 +2298,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>64</v>
@@ -2318,7 +2312,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
@@ -2327,13 +2321,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2341,7 +2335,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>67</v>
@@ -2350,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>68</v>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
@@ -2373,13 +2367,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2387,7 +2381,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
@@ -2396,13 +2390,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2410,7 +2404,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>73</v>
@@ -2419,7 +2413,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>74</v>
@@ -2433,7 +2427,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>75</v>
@@ -2442,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>76</v>
@@ -2456,7 +2450,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>77</v>
@@ -2465,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>78</v>
@@ -2479,7 +2473,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
@@ -2488,7 +2482,7 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>80</v>
@@ -2502,7 +2496,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>81</v>
@@ -2511,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>82</v>
@@ -2525,7 +2519,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>83</v>
@@ -2534,13 +2528,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -2548,7 +2542,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -2557,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>86</v>
@@ -2571,7 +2565,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>87</v>
@@ -2580,13 +2574,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -2603,13 +2597,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2617,7 +2611,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
@@ -2626,7 +2620,7 @@
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>92</v>
@@ -2640,7 +2634,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>93</v>
@@ -2649,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>94</v>
@@ -2663,7 +2657,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -2672,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>96</v>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>50</v>
@@ -2695,7 +2689,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>52</v>
@@ -2709,7 +2703,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>53</v>
@@ -2718,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>54</v>
@@ -2732,19 +2726,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2749,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2778,7 +2772,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>55</v>
@@ -2787,7 +2781,7 @@
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>56</v>
@@ -2801,7 +2795,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>57</v>
@@ -2810,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>58</v>
@@ -2824,19 +2818,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2847,19 +2841,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2870,7 +2864,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>59</v>
@@ -2879,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>60</v>
@@ -2893,16 +2887,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>62</v>
@@ -2916,7 +2910,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>63</v>
@@ -2925,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>64</v>
@@ -2939,16 +2933,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>66</v>
@@ -2962,7 +2956,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>67</v>
@@ -2971,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>68</v>
@@ -2985,7 +2979,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
@@ -2994,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>70</v>
@@ -3008,19 +3002,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3025,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3048,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3071,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>50</v>
@@ -3086,21 +3080,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>53</v>
@@ -3109,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>54</v>
@@ -3118,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>55</v>
@@ -3132,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>56</v>
@@ -3141,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>57</v>
@@ -3155,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>58</v>
@@ -3164,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>59</v>
@@ -3178,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>60</v>
@@ -3187,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>61</v>
@@ -3201,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>62</v>
@@ -3210,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>63</v>
@@ -3224,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -3233,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>65</v>
@@ -3247,21 +3241,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>67</v>
@@ -3270,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -3279,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -3293,21 +3287,21 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>71</v>
@@ -3316,21 +3310,21 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
@@ -3339,7 +3333,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>74</v>
@@ -3348,12 +3342,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>75</v>
@@ -3362,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>76</v>
@@ -3371,12 +3365,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>77</v>
@@ -3385,7 +3379,7 @@
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>78</v>
@@ -3394,12 +3388,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>79</v>
@@ -3408,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>80</v>
@@ -3417,12 +3411,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>81</v>
@@ -3431,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>82</v>
@@ -3440,12 +3434,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
@@ -3454,21 +3448,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>85</v>
@@ -3477,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>86</v>
@@ -3486,12 +3480,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>87</v>
@@ -3500,21 +3494,21 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>89</v>
@@ -3523,21 +3517,21 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>91</v>
@@ -3546,7 +3540,7 @@
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>92</v>
@@ -3555,12 +3549,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>93</v>
@@ -3569,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>94</v>
@@ -3578,21 +3572,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>96</v>
@@ -3601,24 +3595,24 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3629,19 +3623,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>28</v>
@@ -3652,10 +3646,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3664,7 +3658,7 @@
         <v>36</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3675,19 +3669,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -314,6 +314,9 @@
     <t>14,15,16</t>
   </si>
   <si>
+    <t>14,15</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -390,6 +393,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2074,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
@@ -2151,7 +2157,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>50</v>
@@ -2160,13 +2166,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>53</v>
@@ -2183,7 +2189,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>54</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>55</v>
@@ -2206,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>56</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>57</v>
@@ -2229,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>58</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>59</v>
@@ -2252,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>60</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>61</v>
@@ -2275,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>62</v>
@@ -2289,7 +2295,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>63</v>
@@ -2298,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>64</v>
@@ -2312,7 +2318,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>65</v>
@@ -2321,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>67</v>
@@ -2344,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>68</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
@@ -2367,13 +2373,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
@@ -2390,13 +2396,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>73</v>
@@ -2413,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>74</v>
@@ -2427,7 +2433,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>75</v>
@@ -2436,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>76</v>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>77</v>
@@ -2459,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>78</v>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
@@ -2482,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>80</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>81</v>
@@ -2505,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>82</v>
@@ -2519,7 +2525,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>83</v>
@@ -2528,13 +2534,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -2551,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>86</v>
@@ -2565,7 +2571,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>87</v>
@@ -2574,13 +2580,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -2597,13 +2603,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2611,7 +2617,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
@@ -2620,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>92</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>93</v>
@@ -2643,7 +2649,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>94</v>
@@ -2657,7 +2663,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>95</v>
@@ -2666,7 +2672,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>96</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>50</v>
@@ -2689,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>52</v>
@@ -2703,7 +2709,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>53</v>
@@ -2712,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>54</v>
@@ -2726,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>55</v>
@@ -2781,7 +2787,7 @@
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>56</v>
@@ -2795,7 +2801,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>57</v>
@@ -2804,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>58</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,7 +2870,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>59</v>
@@ -2873,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>60</v>
@@ -2887,16 +2893,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>62</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>63</v>
@@ -2919,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>64</v>
@@ -2933,16 +2939,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>66</v>
@@ -2956,7 +2962,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>67</v>
@@ -2965,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>68</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
@@ -2988,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>70</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>50</v>
@@ -3080,21 +3086,21 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>53</v>
@@ -3103,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>54</v>
@@ -3112,12 +3118,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>55</v>
@@ -3126,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>56</v>
@@ -3135,12 +3141,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>57</v>
@@ -3149,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>58</v>
@@ -3158,12 +3164,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>59</v>
@@ -3172,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>60</v>
@@ -3181,12 +3187,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>61</v>
@@ -3195,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>62</v>
@@ -3204,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>63</v>
@@ -3218,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>64</v>
@@ -3227,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>65</v>
@@ -3241,21 +3247,21 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>67</v>
@@ -3264,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>68</v>
@@ -3273,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -3287,21 +3293,21 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>71</v>
@@ -3310,21 +3316,21 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
@@ -3333,7 +3339,7 @@
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>74</v>
@@ -3342,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>75</v>
@@ -3356,7 +3362,7 @@
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>76</v>
@@ -3365,12 +3371,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>77</v>
@@ -3379,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>78</v>
@@ -3388,12 +3394,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>79</v>
@@ -3402,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>80</v>
@@ -3411,12 +3417,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>81</v>
@@ -3425,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>82</v>
@@ -3434,12 +3440,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
@@ -3448,21 +3454,21 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>85</v>
@@ -3471,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>86</v>
@@ -3480,12 +3486,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>87</v>
@@ -3494,21 +3500,21 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>89</v>
@@ -3517,21 +3523,21 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>91</v>
@@ -3540,7 +3546,7 @@
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>92</v>
@@ -3549,12 +3555,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>93</v>
@@ -3563,7 +3569,7 @@
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>94</v>
@@ -3572,21 +3578,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>96</v>
@@ -3595,24 +3601,24 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>28</v>
@@ -3646,10 +3652,10 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3658,7 +3664,7 @@
         <v>36</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3675,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>14,15</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -484,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -494,7 +524,7 @@
     <col min="2" max="2" width="53.12890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2157,22 +2187,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2180,22 +2210,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>38</v>
@@ -2203,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2256,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>38</v>
@@ -2249,22 +2279,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>38</v>
@@ -2272,22 +2302,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2295,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2341,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2364,22 +2394,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2387,22 +2417,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2433,22 +2463,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>38</v>
@@ -2456,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2479,22 +2509,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>38</v>
@@ -2502,22 +2532,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>38</v>
@@ -2525,22 +2555,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>38</v>
@@ -2548,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2571,22 +2601,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2594,22 +2624,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2617,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2640,22 +2670,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>38</v>
@@ -2663,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2686,22 +2716,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>38</v>
@@ -2709,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>38</v>
@@ -2732,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2801,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2854,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>38</v>
@@ -2847,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2870,22 +2900,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>38</v>
@@ -2893,22 +2923,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -2916,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2985,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3054,16 +3084,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>122</v>
@@ -3077,622 +3107,944 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E139" s="2" t="s">
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -3274,7 +3274,7 @@
         <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>117</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -233,13 +239,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1658,22 +1664,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>38</v>
@@ -1681,22 +1687,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>38</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,22 +1825,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>38</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,22 +1871,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>38</v>
@@ -1888,22 +1894,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>38</v>
@@ -1911,22 +1917,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -1934,22 +1940,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>38</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,22 +2032,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>38</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,22 +2078,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -2095,22 +2101,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>38</v>
@@ -2118,22 +2124,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>38</v>
@@ -2141,22 +2147,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>38</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,22 +2216,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>38</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2262,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>38</v>
@@ -2279,22 +2285,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>38</v>
@@ -2302,22 +2308,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2325,22 +2331,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>38</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,22 +2469,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>38</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,22 +2515,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>38</v>
@@ -2532,22 +2538,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>38</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,22 +2584,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>38</v>
@@ -2601,22 +2607,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,22 +2676,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>38</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,22 +2722,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>38</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>38</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,22 +2791,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>38</v>
@@ -2808,22 +2814,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>38</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>38</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,22 +2906,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>38</v>
@@ -2923,22 +2929,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,22 +2975,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -2992,22 +2998,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>38</v>
@@ -3015,10 +3021,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3027,7 +3033,7 @@
         <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,16 +3090,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>122</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3136,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3159,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3320,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3366,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,10 +3389,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3395,7 +3401,7 @@
         <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,10 +3412,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3418,7 +3424,7 @@
         <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,622 +3435,737 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1687,22 +1693,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>38</v>
@@ -1710,22 +1716,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>38</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1871,22 +1877,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>38</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>38</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -1940,22 +1946,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>38</v>
@@ -1963,22 +1969,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>38</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,22 +2038,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>38</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,22 +2084,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,22 +2130,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>38</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>38</v>
@@ -2170,22 +2176,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>38</v>
@@ -2193,22 +2199,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,22 +2268,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>38</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,22 +2314,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2331,22 +2337,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>38</v>
@@ -2354,22 +2360,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2377,22 +2383,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>38</v>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,22 +2544,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>38</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,22 +2590,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>38</v>
@@ -2607,22 +2613,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>38</v>
@@ -2630,22 +2636,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2653,22 +2659,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>38</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,22 +2728,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>38</v>
@@ -2745,22 +2751,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>38</v>
@@ -2768,22 +2774,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>38</v>
@@ -2791,22 +2797,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>38</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>38</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,22 +2866,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>38</v>
@@ -2883,22 +2889,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>38</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,22 +2935,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,22 +2981,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -2998,22 +3004,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>38</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,22 +3050,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>38</v>
@@ -3067,22 +3073,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>38</v>
@@ -3090,10 +3096,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3102,7 +3108,7 @@
         <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,10 +3211,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -3217,7 +3223,7 @@
         <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3435,19 +3441,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3458,19 +3464,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3481,10 +3487,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3493,7 +3499,7 @@
         <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3504,10 +3510,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3516,7 +3522,7 @@
         <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3527,645 +3533,737 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1716,22 +1722,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>38</v>
@@ -1739,22 +1745,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>38</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,22 +1906,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>38</v>
@@ -1923,22 +1929,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -1946,22 +1952,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>38</v>
@@ -1969,22 +1975,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>38</v>
@@ -1992,22 +1998,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>38</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,22 +2044,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>38</v>
@@ -2061,22 +2067,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>38</v>
@@ -2084,22 +2090,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,22 +2136,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>38</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,22 +2182,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>38</v>
@@ -2199,22 +2205,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>38</v>
@@ -2222,22 +2228,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>38</v>
@@ -2245,22 +2251,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>38</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,22 +2320,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,22 +2366,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2383,22 +2389,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>38</v>
@@ -2406,22 +2412,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2429,22 +2435,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2452,22 +2458,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>38</v>
@@ -2475,19 +2481,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,22 +2596,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>38</v>
@@ -2613,19 +2619,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,22 +2642,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2659,22 +2665,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>38</v>
@@ -2682,22 +2688,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>38</v>
@@ -2705,22 +2711,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>38</v>
@@ -2728,22 +2734,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>38</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,22 +2780,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>38</v>
@@ -2797,22 +2803,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>38</v>
@@ -2820,22 +2826,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>38</v>
@@ -2843,22 +2849,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>38</v>
@@ -2866,22 +2872,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>38</v>
@@ -2889,22 +2895,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>38</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,22 +2941,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -2958,22 +2964,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>38</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,22 +3010,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>38</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,22 +3056,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>38</v>
@@ -3073,22 +3079,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>38</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,22 +3125,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>38</v>
@@ -3142,22 +3148,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>38</v>
@@ -3165,10 +3171,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3177,7 +3183,7 @@
         <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3240,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,10 +3286,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -3292,7 +3298,7 @@
         <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,19 +3309,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3349,19 +3355,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,19 +3424,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3464,19 +3470,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3487,19 +3493,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3510,19 +3516,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3533,19 +3539,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3556,10 +3562,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3568,7 +3574,7 @@
         <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3579,10 +3585,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3591,7 +3597,7 @@
         <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3602,668 +3608,760 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B162" s="2" t="s">
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>38</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -3959,7 +3959,7 @@
         <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>140</v>
@@ -3982,7 +3982,7 @@
         <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>140</v>
@@ -3991,7 +3991,7 @@
         <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>142</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_082.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -532,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1745,22 +1757,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>38</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,22 +1803,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>38</v>
@@ -1814,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,22 +1918,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>38</v>
@@ -1929,22 +1941,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>38</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,22 +1987,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>38</v>
@@ -1998,22 +2010,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>38</v>
@@ -2021,22 +2033,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>38</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,22 +2079,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>38</v>
@@ -2090,22 +2102,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>38</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,22 +2148,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>38</v>
@@ -2159,22 +2171,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>38</v>
@@ -2182,22 +2194,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>38</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,22 +2240,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>38</v>
@@ -2251,22 +2263,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>38</v>
@@ -2274,22 +2286,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>38</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,22 +2332,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>38</v>
@@ -2343,22 +2355,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>38</v>
@@ -2366,22 +2378,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>38</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,22 +2424,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>38</v>
@@ -2435,22 +2447,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>38</v>
@@ -2458,22 +2470,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>38</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,22 +2516,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>38</v>
@@ -2527,22 +2539,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>38</v>
@@ -2550,22 +2562,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>38</v>
@@ -2573,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,22 +2654,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>38</v>
@@ -2665,22 +2677,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>38</v>
@@ -2688,22 +2700,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>38</v>
@@ -2711,22 +2723,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>38</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,22 +2792,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>38</v>
@@ -2803,22 +2815,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>38</v>
@@ -2826,22 +2838,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>38</v>
@@ -2849,22 +2861,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>38</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,22 +2907,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>38</v>
@@ -2918,22 +2930,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>38</v>
@@ -2941,22 +2953,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>38</v>
@@ -2964,22 +2976,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>38</v>
@@ -2987,22 +2999,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>38</v>
@@ -3010,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,22 +3045,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>38</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,22 +3091,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>38</v>
@@ -3102,22 +3114,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>38</v>
@@ -3125,22 +3137,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>38</v>
@@ -3148,22 +3160,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>38</v>
@@ -3171,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,22 +3229,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>38</v>
@@ -3240,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3263,22 +3275,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>38</v>
@@ -3286,22 +3298,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>38</v>
@@ -3309,19 +3321,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3332,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3355,19 +3367,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3390,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3401,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3482,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3620,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3654,16 +3666,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>138</v>
@@ -3677,691 +3689,875 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>38</v>
       </c>
     </row>
